--- a/medicine/Psychotrope/Brussels_Beer_Project/Brussels_Beer_Project.xlsx
+++ b/medicine/Psychotrope/Brussels_Beer_Project/Brussels_Beer_Project.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Brussels Beer Project est une marque de bière belge artisanale, elle possède une brasserie à Dansaert et une seconde à Anderlecht[1],[2]. C'est une des rares brasseries à s'occuper à la fois de la production dans ses sites, mais aussi d'avoir des enseignes de vente et dégustation, leurs taprooms : deux à Paris, trois à Bruxelles et une à Tokyo.
+Brussels Beer Project est une marque de bière belge artisanale, elle possède une brasserie à Dansaert et une seconde à Anderlecht,. C'est une des rares brasseries à s'occuper à la fois de la production dans ses sites, mais aussi d'avoir des enseignes de vente et dégustation, leurs taprooms : deux à Paris, trois à Bruxelles et une à Tokyo.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est née de deux passionnés : Sébastien et Olivier qui furent parmi les premiers à établir une chaine de production et de distribution exclusivement intra-bruxelloise.
-Fin 2021, la brasserie ouvre une seconde brasserie de production à Anderlecht, collée au Bassin de Biestebroeck dans le quartier Port Sud[3].
+Fin 2021, la brasserie ouvre une seconde brasserie de production à Anderlecht, collée au Bassin de Biestebroeck dans le quartier Port Sud.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bières régulières
-Des bières qui ont le plus plu sont à nouveau brassées chaque mois, parmi celles-ci :
+          <t>Bières régulières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des bières qui ont le plus plu sont à nouveau brassées chaque mois, parmi celles-ci :
 Delta IPA (2013) : bière phare de la marque, taux d'alcool à 6,5 %. Style Belgian IPA (India Pale Ale) ;
 Grosse Bertha (2014) : taux d'alcool à 7 %. Style Belgian Hefeweizen/Triple ;
 Babylone (2015) : taux d'alcool à 7 %. Style Bread Bitter (style nouveau, brassé partiellement à partir de mie de pain rendant la bière amère) ;
@@ -556,13 +575,7 @@
 Juice Junkie (2019) : taux d'alcool à 5,8 %. Syle New England IPA (India Pale Ale) ;
 Pico Bello (2019) : bière considérée comme leur première bière sans alcool qui présente un taux d'alcool de 0,3 %. Style Zero New England IPA (India Pale Ale) ;
 Pico Nova (2021) : taux d'alcool à 0,3 %. Style Zero West Coast IPA ;
-Dark Sister (2021) : taux d'alcool à 6,66 %. Style Belgian Black IPA.
-Bières temporaires
-Les brasseurs s'essaient à de nouveaux styles et de nouvelles combinaisons chaque mois, renouvelant ainsi une petite liste mensuelle de bières dites « pop-up ».
-Bières vieillies
-La brasserie propose également des bières vieillies en fût, ce qui permet de concentrer les saveurs et de rendre les bières plus fortes.
-True &amp; False BA (2019) : taux d'alcool de 9,1 %. Style Imperial Blond Stout.
-Levithan (2016) : taux d'alcool de 9,1 %. Style Cognac Aged Belgium Barley Wine.</t>
+Dark Sister (2021) : taux d'alcool à 6,66 %. Style Belgian Black IPA.</t>
         </is>
       </c>
     </row>
@@ -587,10 +600,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bières temporaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les brasseurs s'essaient à de nouveaux styles et de nouvelles combinaisons chaque mois, renouvelant ainsi une petite liste mensuelle de bières dites « pop-up ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brussels_Beer_Project</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brussels_Beer_Project</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bières vieillies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La brasserie propose également des bières vieillies en fût, ce qui permet de concentrer les saveurs et de rendre les bières plus fortes.
+True &amp; False BA (2019) : taux d'alcool de 9,1 %. Style Imperial Blond Stout.
+Levithan (2016) : taux d'alcool de 9,1 %. Style Cognac Aged Belgium Barley Wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brussels_Beer_Project</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brussels_Beer_Project</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taprooms / Lieux de dégustation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brussels Beer Project possède six taprooms à travers le monde. Il s'agit de lieux où la brasserie vend ses propres bières et permet d'être un lieu d'évènement occasionnellement.
 Bruxelles, Dansaert
